--- a/v5/v5_missing_value/v5_regression_missing_value.xlsx
+++ b/v5/v5_missing_value/v5_regression_missing_value.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wp\Desktop\master\results\analysis_data\standard_missing_value\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\experimental_data\v5\v5_missing_value\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356F00E0-EFF5-461A-B33D-7CC7AFDEFFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF8352C-2D62-4B01-85A6-A8F8B09EA74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="1441">
   <si>
     <t>dataname:task_type</t>
   </si>
@@ -589,6 +589,243 @@
     <t>-0.23%</t>
   </si>
   <si>
+    <t>Brazilian_houses:regression</t>
+  </si>
+  <si>
+    <t>1039.7982,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>895.8303,(-13.85%:1)</t>
+  </si>
+  <si>
+    <t>1049.9848,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1079.2533,(2.79%:2)</t>
+  </si>
+  <si>
+    <t>1633.0532,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1288.0607,(-21.13%:1)</t>
+  </si>
+  <si>
+    <t>2369.0750,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1978.8416,(-16.47%:1)</t>
+  </si>
+  <si>
+    <t>1639.7776,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1616.0034,(-1.45%:1)</t>
+  </si>
+  <si>
+    <t>1882.0091,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1833.2078,(-2.59%:1)</t>
+  </si>
+  <si>
+    <t>1108.3467,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1432.1433,(29.21%:2)</t>
+  </si>
+  <si>
+    <t>1522.3023,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1773.0264,(16.47%:2)</t>
+  </si>
+  <si>
+    <t>1854.2966,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>2110.3279,(13.81%:2)</t>
+  </si>
+  <si>
+    <t>2058.3148,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>2188.4156,(6.32%:2)</t>
+  </si>
+  <si>
+    <t>1901.5200,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1936.9738,(1.86%:2)</t>
+  </si>
+  <si>
+    <t>2361.3105,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>2641.3656,(11.86%:2)</t>
+  </si>
+  <si>
+    <t>1235.8664,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>2684.7697,(117.24%:2)</t>
+  </si>
+  <si>
+    <t>1216.1971,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>2966.4671,(143.91%:2)</t>
+  </si>
+  <si>
+    <t>1425.7365,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1673.2126,(17.36%:2)</t>
+  </si>
+  <si>
+    <t>2329.3402,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>5055.1461,(117.02%:2)</t>
+  </si>
+  <si>
+    <t>1789.1303,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>2527.3373,(41.26%:2)</t>
+  </si>
+  <si>
+    <t>1938.9930,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>2067.8436,(6.65%:2)</t>
+  </si>
+  <si>
+    <t>1056.9447,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1383.0853,(30.86%:2)</t>
+  </si>
+  <si>
+    <t>1426.4174,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1585.2969,(11.14%:2)</t>
+  </si>
+  <si>
+    <t>1742.3316,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>2064.7790,(18.51%:2)</t>
+  </si>
+  <si>
+    <t>1957.1117,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>2050.9107,(4.79%:2)</t>
+  </si>
+  <si>
+    <t>2113.7455,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>2383.8105,(12.78%:2)</t>
+  </si>
+  <si>
+    <t>2255.3227,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>2465.7004,(9.33%:2)</t>
+  </si>
+  <si>
+    <t>1699.6276,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1239.9727,(-27.04%:1)</t>
+  </si>
+  <si>
+    <t>1768.2536,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1369.9524,(-22.53%:1)</t>
+  </si>
+  <si>
+    <t>1599.7899,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1373.6604,(-14.13%:1)</t>
+  </si>
+  <si>
+    <t>2296.1294,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1985.6555,(-13.52%:1)</t>
+  </si>
+  <si>
+    <t>2477.8810,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>2208.6336,(-10.87%:1)</t>
+  </si>
+  <si>
+    <t>2460.5668,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>2425.7797,(-1.41%:1)</t>
+  </si>
+  <si>
+    <t>1766.6207,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1593.4921,(-9.80%:1)</t>
+  </si>
+  <si>
+    <t>2288.6320,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>2049.9641,(-10.43%:1)</t>
+  </si>
+  <si>
+    <t>2385.6248,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>2099.9633,(-11.97%:1)</t>
+  </si>
+  <si>
+    <t>2766.5074,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>2602.3689,(-5.93%:1)</t>
+  </si>
+  <si>
+    <t>2840.2863,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>2720.8724,(-4.20%:1)</t>
+  </si>
+  <si>
+    <t>2877.3183,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>2893.6342,(0.57%:2)</t>
+  </si>
+  <si>
+    <t>21.10%</t>
+  </si>
+  <si>
+    <t>23.56%</t>
+  </si>
+  <si>
+    <t>0.41%</t>
+  </si>
+  <si>
+    <t>15.37%</t>
+  </si>
+  <si>
+    <t>6.56%</t>
+  </si>
+  <si>
+    <t>4.07%</t>
+  </si>
+  <si>
     <t>california_housing:regression</t>
   </si>
   <si>
@@ -826,6 +1063,237 @@
     <t>-0.38%</t>
   </si>
   <si>
+    <t>colleges:regression</t>
+  </si>
+  <si>
+    <t>0.1505,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1558,(3.54%:2)</t>
+  </si>
+  <si>
+    <t>0.1569,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1627,(3.71%:2)</t>
+  </si>
+  <si>
+    <t>0.1619,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1663,(2.70%:2)</t>
+  </si>
+  <si>
+    <t>0.1679,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1679,(0.02%:2)</t>
+  </si>
+  <si>
+    <t>0.1755,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1771,(0.96%:2)</t>
+  </si>
+  <si>
+    <t>0.1786,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1830,(2.47%:2)</t>
+  </si>
+  <si>
+    <t>0.1544,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1562,(1.16%:2)</t>
+  </si>
+  <si>
+    <t>0.1598,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1631,(2.09%:2)</t>
+  </si>
+  <si>
+    <t>0.1641,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1669,(1.68%:2)</t>
+  </si>
+  <si>
+    <t>0.1708,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1738,(1.76%:2)</t>
+  </si>
+  <si>
+    <t>0.1757,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1788,(1.81%:2)</t>
+  </si>
+  <si>
+    <t>0.1794,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1821,(1.52%:2)</t>
+  </si>
+  <si>
+    <t>0.1509,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.1491,(-1.17%:1)</t>
+  </si>
+  <si>
+    <t>0.1531,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1535,(0.31%:2)</t>
+  </si>
+  <si>
+    <t>0.1579,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1583,(0.23%:2)</t>
+  </si>
+  <si>
+    <t>0.1647,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.1633,(-0.84%:1)</t>
+  </si>
+  <si>
+    <t>0.1680,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.1677,(-0.18%:1)</t>
+  </si>
+  <si>
+    <t>0.1731,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1731,(0.01%:2)</t>
+  </si>
+  <si>
+    <t>0.1517,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1520,(0.18%:2)</t>
+  </si>
+  <si>
+    <t>0.1574,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1586,(0.77%:2)</t>
+  </si>
+  <si>
+    <t>0.1620,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1631,(0.70%:2)</t>
+  </si>
+  <si>
+    <t>0.1685,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1701,(0.89%:2)</t>
+  </si>
+  <si>
+    <t>0.1741,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1757,(0.89%:2)</t>
+  </si>
+  <si>
+    <t>0.1785,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1799,(0.81%:2)</t>
+  </si>
+  <si>
+    <t>0.1487,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.1483,(-0.21%:1)</t>
+  </si>
+  <si>
+    <t>0.1635,(1.01%:2)</t>
+  </si>
+  <si>
+    <t>0.1688,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1714,(1.58%:2)</t>
+  </si>
+  <si>
+    <t>0.1779,(1.39%:2)</t>
+  </si>
+  <si>
+    <t>0.1808,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1846,(2.12%:2)</t>
+  </si>
+  <si>
+    <t>0.1828,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1878,(2.73%:2)</t>
+  </si>
+  <si>
+    <t>0.1829,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.1726,(-5.63%:1)</t>
+  </si>
+  <si>
+    <t>0.1845,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.1767,(-4.24%:1)</t>
+  </si>
+  <si>
+    <t>0.1890,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.1811,(-4.15%:1)</t>
+  </si>
+  <si>
+    <t>0.1941,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.1847,(-4.87%:1)</t>
+  </si>
+  <si>
+    <t>0.2016,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.1882,(-6.66%:1)</t>
+  </si>
+  <si>
+    <t>0.2059,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.1919,(-6.81%:1)</t>
+  </si>
+  <si>
+    <t>-0.36%</t>
+  </si>
+  <si>
+    <t>0.61%</t>
+  </si>
+  <si>
+    <t>0.46%</t>
+  </si>
+  <si>
+    <t>-0.28%</t>
+  </si>
+  <si>
+    <t>-0.18%</t>
+  </si>
+  <si>
+    <t>0.12%</t>
+  </si>
+  <si>
     <t>combined_cycle_power_plant:regression</t>
   </si>
   <si>
@@ -1744,6 +2212,1170 @@
     <t>-1.24%</t>
   </si>
   <si>
+    <t>House_16H:regression</t>
+  </si>
+  <si>
+    <t>31039.7870,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>31439.8839,(1.29%:2)</t>
+  </si>
+  <si>
+    <t>35842.2935,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>36053.8607,(0.59%:2)</t>
+  </si>
+  <si>
+    <t>36451.9467,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>36830.9054,(1.04%:2)</t>
+  </si>
+  <si>
+    <t>38089.4156,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>39201.7668,(2.92%:2)</t>
+  </si>
+  <si>
+    <t>39650.4734,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>40209.7339,(1.41%:2)</t>
+  </si>
+  <si>
+    <t>41159.1947,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>42251.3488,(2.65%:2)</t>
+  </si>
+  <si>
+    <t>31126.6423,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>31418.6438,(0.94%:2)</t>
+  </si>
+  <si>
+    <t>35653.3263,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>35195.0502,(-1.29%:1)</t>
+  </si>
+  <si>
+    <t>37478.5233,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>37716.0797,(0.63%:2)</t>
+  </si>
+  <si>
+    <t>40126.7726,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>40216.2363,(0.22%:2)</t>
+  </si>
+  <si>
+    <t>41219.0008,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>41284.8222,(0.16%:2)</t>
+  </si>
+  <si>
+    <t>42346.6216,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>42409.5275,(0.15%:2)</t>
+  </si>
+  <si>
+    <t>30012.1929,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>30236.0053,(0.75%:2)</t>
+  </si>
+  <si>
+    <t>33443.7125,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>33627.0429,(0.55%:2)</t>
+  </si>
+  <si>
+    <t>35594.7317,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>36469.8580,(2.46%:2)</t>
+  </si>
+  <si>
+    <t>36989.6641,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>37446.1842,(1.23%:2)</t>
+  </si>
+  <si>
+    <t>38797.1623,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>38947.2071,(0.39%:2)</t>
+  </si>
+  <si>
+    <t>40375.0423,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>40743.0383,(0.91%:2)</t>
+  </si>
+  <si>
+    <t>31529.0872,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>31340.4078,(-0.60%:1)</t>
+  </si>
+  <si>
+    <t>35408.9726,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>35727.4173,(0.90%:2)</t>
+  </si>
+  <si>
+    <t>36961.7261,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>37245.6552,(0.77%:2)</t>
+  </si>
+  <si>
+    <t>38968.0348,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>39164.7741,(0.50%:2)</t>
+  </si>
+  <si>
+    <t>40554.1948,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>40571.5144,(0.04%:2)</t>
+  </si>
+  <si>
+    <t>42107.4022,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>42406.9044,(0.71%:2)</t>
+  </si>
+  <si>
+    <t>32094.2225,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>32105.9789,(0.04%:2)</t>
+  </si>
+  <si>
+    <t>36338.2279,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>36112.4406,(-0.62%:1)</t>
+  </si>
+  <si>
+    <t>37192.9320,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>37522.3569,(0.89%:2)</t>
+  </si>
+  <si>
+    <t>39060.1547,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>39168.0667,(0.28%:2)</t>
+  </si>
+  <si>
+    <t>40403.3166,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>40571.8717,(0.42%:2)</t>
+  </si>
+  <si>
+    <t>41808.7416,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>42520.5203,(1.70%:2)</t>
+  </si>
+  <si>
+    <t>42559.8496,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>40631.4677,(-4.53%:1)</t>
+  </si>
+  <si>
+    <t>44461.5794,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>41084.9926,(-7.59%:1)</t>
+  </si>
+  <si>
+    <t>44314.8040,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>42638.8446,(-3.78%:1)</t>
+  </si>
+  <si>
+    <t>45039.2037,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>42147.8110,(-6.42%:1)</t>
+  </si>
+  <si>
+    <t>45892.5276,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>43460.3428,(-5.30%:1)</t>
+  </si>
+  <si>
+    <t>47092.4823,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>44865.9285,(-4.73%:1)</t>
+  </si>
+  <si>
+    <t>-0.35%</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>-0.21%</t>
+  </si>
+  <si>
+    <t>-0.48%</t>
+  </si>
+  <si>
+    <t>0.23%</t>
+  </si>
+  <si>
+    <t>house_sales:regression</t>
+  </si>
+  <si>
+    <t>122265.4221,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>120989.2703,(-1.04%:1)</t>
+  </si>
+  <si>
+    <t>140433.3000,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>143857.9238,(2.44%:2)</t>
+  </si>
+  <si>
+    <t>166297.6205,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>172925.6270,(3.99%:2)</t>
+  </si>
+  <si>
+    <t>169120.7648,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>170991.3792,(1.11%:2)</t>
+  </si>
+  <si>
+    <t>195233.6780,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>192460.7266,(-1.42%:1)</t>
+  </si>
+  <si>
+    <t>214355.5136,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>216677.1053,(1.08%:2)</t>
+  </si>
+  <si>
+    <t>122534.5506,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>128917.6401,(5.21%:2)</t>
+  </si>
+  <si>
+    <t>138659.5122,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>150475.4951,(8.52%:2)</t>
+  </si>
+  <si>
+    <t>166640.0441,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>174211.4462,(4.54%:2)</t>
+  </si>
+  <si>
+    <t>187847.3061,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>191289.8815,(1.83%:2)</t>
+  </si>
+  <si>
+    <t>196436.0452,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>201636.1684,(2.65%:2)</t>
+  </si>
+  <si>
+    <t>214082.0552,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>218263.2583,(1.95%:2)</t>
+  </si>
+  <si>
+    <t>124223.6029,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>118717.3249,(-4.43%:1)</t>
+  </si>
+  <si>
+    <t>133213.2567,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>138598.2102,(4.04%:2)</t>
+  </si>
+  <si>
+    <t>151442.9406,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>155012.7311,(2.36%:2)</t>
+  </si>
+  <si>
+    <t>170578.5469,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>171743.2005,(0.68%:2)</t>
+  </si>
+  <si>
+    <t>175136.6975,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>178927.9256,(2.16%:2)</t>
+  </si>
+  <si>
+    <t>205187.7035,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>198878.9205,(-3.07%:1)</t>
+  </si>
+  <si>
+    <t>125339.7829,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>130293.0881,(3.95%:2)</t>
+  </si>
+  <si>
+    <t>143027.5254,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>151916.1435,(6.21%:2)</t>
+  </si>
+  <si>
+    <t>163632.7252,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>166011.8985,(1.45%:2)</t>
+  </si>
+  <si>
+    <t>180210.8347,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>183764.3411,(1.97%:2)</t>
+  </si>
+  <si>
+    <t>199290.2753,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>201990.2194,(1.35%:2)</t>
+  </si>
+  <si>
+    <t>210851.6175,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>215247.6734,(2.08%:2)</t>
+  </si>
+  <si>
+    <t>128126.7357,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>135970.7700,(6.12%:2)</t>
+  </si>
+  <si>
+    <t>142106.8588,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>154421.6684,(8.67%:2)</t>
+  </si>
+  <si>
+    <t>159105.6434,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>167466.7256,(5.26%:2)</t>
+  </si>
+  <si>
+    <t>176884.9370,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>183853.7933,(3.94%:2)</t>
+  </si>
+  <si>
+    <t>201338.7567,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>199698.5836,(-0.81%:1)</t>
+  </si>
+  <si>
+    <t>215311.4739,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>218608.4429,(1.53%:2)</t>
+  </si>
+  <si>
+    <t>183995.0293,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>174309.3058,(-5.26%:1)</t>
+  </si>
+  <si>
+    <t>218235.9015,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>223074.9740,(2.22%:2)</t>
+  </si>
+  <si>
+    <t>230755.3441,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>240005.4295,(4.01%:2)</t>
+  </si>
+  <si>
+    <t>256142.1056,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>256981.2543,(0.33%:2)</t>
+  </si>
+  <si>
+    <t>266274.2227,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>267428.5581,(0.43%:2)</t>
+  </si>
+  <si>
+    <t>277629.3748,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>275175.7555,(-0.88%:1)</t>
+  </si>
+  <si>
+    <t>0.76%</t>
+  </si>
+  <si>
+    <t>5.35%</t>
+  </si>
+  <si>
+    <t>3.60%</t>
+  </si>
+  <si>
+    <t>1.64%</t>
+  </si>
+  <si>
+    <t>0.73%</t>
+  </si>
+  <si>
+    <t>0.45%</t>
+  </si>
+  <si>
+    <t>OnlineNewsPopularity:regression</t>
+  </si>
+  <si>
+    <t>12853.8276,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12886.0999,(0.25%:2)</t>
+  </si>
+  <si>
+    <t>12868.0186,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12884.3524,(0.13%:2)</t>
+  </si>
+  <si>
+    <t>12901.3933,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12968.1855,(0.52%:2)</t>
+  </si>
+  <si>
+    <t>12915.3742,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12975.7066,(0.47%:2)</t>
+  </si>
+  <si>
+    <t>12913.1917,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12938.9041,(0.20%:2)</t>
+  </si>
+  <si>
+    <t>12929.2438,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12941.6159,(0.10%:2)</t>
+  </si>
+  <si>
+    <t>12943.8797,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12961.1196,(0.13%:2)</t>
+  </si>
+  <si>
+    <t>13041.7010,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>13071.8960,(0.23%:2)</t>
+  </si>
+  <si>
+    <t>13097.6157,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>13130.6274,(0.25%:2)</t>
+  </si>
+  <si>
+    <t>13161.6797,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>13142.2280,(-0.15%:1)</t>
+  </si>
+  <si>
+    <t>13155.5566,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>13171.8652,(0.12%:2)</t>
+  </si>
+  <si>
+    <t>13121.5432,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>13092.3304,(-0.22%:1)</t>
+  </si>
+  <si>
+    <t>12859.5735,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12875.2675,(0.12%:2)</t>
+  </si>
+  <si>
+    <t>12887.3626,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12963.4613,(0.59%:2)</t>
+  </si>
+  <si>
+    <t>12911.1801,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>13064.9013,(1.19%:2)</t>
+  </si>
+  <si>
+    <t>12890.2610,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>13130.8375,(1.87%:2)</t>
+  </si>
+  <si>
+    <t>12867.6364,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>12859.2098,(-0.07%:1)</t>
+  </si>
+  <si>
+    <t>12921.8757,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>13017.0777,(0.74%:2)</t>
+  </si>
+  <si>
+    <t>12869.5081,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12873.7375,(0.03%:2)</t>
+  </si>
+  <si>
+    <t>12884.2477,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12889.8582,(0.04%:2)</t>
+  </si>
+  <si>
+    <t>12899.9011,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12905.6182,(0.04%:2)</t>
+  </si>
+  <si>
+    <t>12914.4963,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12924.9036,(0.08%:2)</t>
+  </si>
+  <si>
+    <t>12918.4529,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12931.0597,(0.10%:2)</t>
+  </si>
+  <si>
+    <t>12919.3628,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12928.3469,(0.07%:2)</t>
+  </si>
+  <si>
+    <t>12926.5858,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>12919.9711,(-0.05%:1)</t>
+  </si>
+  <si>
+    <t>12962.1288,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12999.4579,(0.29%:2)</t>
+  </si>
+  <si>
+    <t>12989.7055,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12992.0590,(0.02%:2)</t>
+  </si>
+  <si>
+    <t>12988.1173,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>13015.9190,(0.21%:2)</t>
+  </si>
+  <si>
+    <t>12996.3180,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>13058.6567,(0.48%:2)</t>
+  </si>
+  <si>
+    <t>12998.6329,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>13034.2208,(0.27%:2)</t>
+  </si>
+  <si>
+    <t>12907.5190,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>12907.2436,(-0.00%:1)</t>
+  </si>
+  <si>
+    <t>12944.8025,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12957.6375,(0.10%:2)</t>
+  </si>
+  <si>
+    <t>12969.1515,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>12940.5652,(-0.22%:1)</t>
+  </si>
+  <si>
+    <t>12971.2288,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12999.3221,(0.22%:2)</t>
+  </si>
+  <si>
+    <t>12981.4919,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>12943.1531,(-0.30%:1)</t>
+  </si>
+  <si>
+    <t>12971.5601,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>12965.8563,(-0.04%:1)</t>
+  </si>
+  <si>
+    <t>0.08%</t>
+  </si>
+  <si>
+    <t>0.30%</t>
+  </si>
+  <si>
+    <t>0.09%</t>
+  </si>
+  <si>
+    <t>0.15%</t>
+  </si>
+  <si>
+    <t>physicochemical_properties_of_protein_tertiary_structure:regression</t>
+  </si>
+  <si>
+    <t>3.8212,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.6989,(-3.20%:1)</t>
+  </si>
+  <si>
+    <t>4.4471,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>4.3879,(-1.33%:1)</t>
+  </si>
+  <si>
+    <t>4.7397,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>4.7094,(-0.64%:1)</t>
+  </si>
+  <si>
+    <t>4.9953,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>4.9973,(0.04%:2)</t>
+  </si>
+  <si>
+    <t>5.2171,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>5.1964,(-0.40%:1)</t>
+  </si>
+  <si>
+    <t>5.3851,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>5.3786,(-0.12%:1)</t>
+  </si>
+  <si>
+    <t>3.6868,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.6866,(-0.01%:1)</t>
+  </si>
+  <si>
+    <t>4.4422,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>4.4364,(-0.13%:1)</t>
+  </si>
+  <si>
+    <t>4.7577,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>4.7401,(-0.37%:1)</t>
+  </si>
+  <si>
+    <t>5.0568,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>5.0477,(-0.18%:1)</t>
+  </si>
+  <si>
+    <t>5.2560,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>5.2517,(-0.08%:1)</t>
+  </si>
+  <si>
+    <t>5.4328,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>5.4271,(-0.11%:1)</t>
+  </si>
+  <si>
+    <t>3.6373,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.6171,(-0.55%:1)</t>
+  </si>
+  <si>
+    <t>4.2892,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>4.2508,(-0.89%:1)</t>
+  </si>
+  <si>
+    <t>4.6282,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>4.6243,(-0.08%:1)</t>
+  </si>
+  <si>
+    <t>4.8886,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>4.8739,(-0.30%:1)</t>
+  </si>
+  <si>
+    <t>5.0883,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>5.0934,(0.10%:2)</t>
+  </si>
+  <si>
+    <t>5.3052,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>5.3104,(0.10%:2)</t>
+  </si>
+  <si>
+    <t>3.4782,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.4712,(-0.20%:1)</t>
+  </si>
+  <si>
+    <t>4.4082,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>4.3876,(-0.47%:1)</t>
+  </si>
+  <si>
+    <t>4.7335,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>4.7274,(-0.13%:1)</t>
+  </si>
+  <si>
+    <t>5.0276,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>5.0163,(-0.22%:1)</t>
+  </si>
+  <si>
+    <t>5.2157,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>5.2095,(-0.12%:1)</t>
+  </si>
+  <si>
+    <t>5.4287,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>5.4209,(-0.14%:1)</t>
+  </si>
+  <si>
+    <t>3.5745,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.5420,(-0.91%:1)</t>
+  </si>
+  <si>
+    <t>4.5027,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>4.4850,(-0.39%:1)</t>
+  </si>
+  <si>
+    <t>4.8029,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>4.8192,(0.34%:2)</t>
+  </si>
+  <si>
+    <t>5.0693,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>5.0745,(0.10%:2)</t>
+  </si>
+  <si>
+    <t>5.2322,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>5.2423,(0.19%:2)</t>
+  </si>
+  <si>
+    <t>5.4434,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>5.4478,(0.08%:2)</t>
+  </si>
+  <si>
+    <t>4.4640,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>4.0756,(-8.70%:1)</t>
+  </si>
+  <si>
+    <t>4.9219,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>4.6903,(-4.71%:1)</t>
+  </si>
+  <si>
+    <t>5.1573,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>4.9661,(-3.71%:1)</t>
+  </si>
+  <si>
+    <t>5.3397,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>5.1854,(-2.89%:1)</t>
+  </si>
+  <si>
+    <t>5.4581,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>5.3204,(-2.52%:1)</t>
+  </si>
+  <si>
+    <t>5.6036,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>5.4965,(-1.91%:1)</t>
+  </si>
+  <si>
+    <t>-2.26%</t>
+  </si>
+  <si>
+    <t>-1.32%</t>
+  </si>
+  <si>
+    <t>-0.58%</t>
+  </si>
+  <si>
+    <t>pol:regression</t>
+  </si>
+  <si>
+    <t>6.2986,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>5.7431,(-8.82%:1)</t>
+  </si>
+  <si>
+    <t>11.6652,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>11.3399,(-2.79%:1)</t>
+  </si>
+  <si>
+    <t>19.5428,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>18.6963,(-4.33%:1)</t>
+  </si>
+  <si>
+    <t>25.3051,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>24.8338,(-1.86%:1)</t>
+  </si>
+  <si>
+    <t>29.9191,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>30.5968,(2.27%:2)</t>
+  </si>
+  <si>
+    <t>36.0876,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>37.2354,(3.18%:2)</t>
+  </si>
+  <si>
+    <t>8.8105,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>8.8251,(0.17%:2)</t>
+  </si>
+  <si>
+    <t>26.7361,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>26.8748,(0.52%:2)</t>
+  </si>
+  <si>
+    <t>33.1679,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>33.5461,(1.14%:2)</t>
+  </si>
+  <si>
+    <t>36.6579,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>37.6398,(2.68%:2)</t>
+  </si>
+  <si>
+    <t>39.1516,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>38.8726,(-0.71%:1)</t>
+  </si>
+  <si>
+    <t>40.6623,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>40.7742,(0.28%:2)</t>
+  </si>
+  <si>
+    <t>2.8089,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>2.6309,(-6.34%:1)</t>
+  </si>
+  <si>
+    <t>9.3262,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>9.1965,(-1.39%:1)</t>
+  </si>
+  <si>
+    <t>15.5627,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>15.5829,(0.13%:2)</t>
+  </si>
+  <si>
+    <t>20.8954,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>20.8552,(-0.19%:1)</t>
+  </si>
+  <si>
+    <t>24.5186,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>24.9057,(1.58%:2)</t>
+  </si>
+  <si>
+    <t>28.6970,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>29.0685,(1.29%:2)</t>
+  </si>
+  <si>
+    <t>9.9422,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>9.8673,(-0.75%:1)</t>
+  </si>
+  <si>
+    <t>26.0617,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>26.1846,(0.47%:2)</t>
+  </si>
+  <si>
+    <t>31.7852,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>32.2018,(1.31%:2)</t>
+  </si>
+  <si>
+    <t>35.0750,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>35.7762,(2.00%:2)</t>
+  </si>
+  <si>
+    <t>37.9419,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>38.2471,(0.80%:2)</t>
+  </si>
+  <si>
+    <t>39.4544,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>40.0001,(1.38%:2)</t>
+  </si>
+  <si>
+    <t>10.5051,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>10.1623,(-3.26%:1)</t>
+  </si>
+  <si>
+    <t>26.3608,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>26.0163,(-1.31%:1)</t>
+  </si>
+  <si>
+    <t>31.9598,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>32.0262,(0.21%:2)</t>
+  </si>
+  <si>
+    <t>35.5389,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>35.6576,(0.33%:2)</t>
+  </si>
+  <si>
+    <t>38.1268,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>38.7695,(1.69%:2)</t>
+  </si>
+  <si>
+    <t>39.4457,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>40.4748,(2.61%:2)</t>
+  </si>
+  <si>
+    <t>16.7229,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>10.9134,(-34.74%:1)</t>
+  </si>
+  <si>
+    <t>30.9005,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>27.9586,(-9.52%:1)</t>
+  </si>
+  <si>
+    <t>34.4831,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>32.9787,(-4.36%:1)</t>
+  </si>
+  <si>
+    <t>37.6348,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>37.9924,(0.95%:2)</t>
+  </si>
+  <si>
+    <t>38.7695,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>39.7907,(2.63%:2)</t>
+  </si>
+  <si>
+    <t>40.2146,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>41.9830,(4.40%:2)</t>
+  </si>
+  <si>
+    <t>-8.96%</t>
+  </si>
+  <si>
+    <t>-2.34%</t>
+  </si>
+  <si>
+    <t>0.65%</t>
+  </si>
+  <si>
+    <t>1.38%</t>
+  </si>
+  <si>
+    <t>2.19%</t>
+  </si>
+  <si>
     <t>qsar_aquatic_toxicity:regression</t>
   </si>
   <si>
@@ -2698,22 +4330,19 @@
     <t>total_avg_percentage</t>
   </si>
   <si>
-    <t>-7.29%</t>
-  </si>
-  <si>
-    <t>-5.14%</t>
-  </si>
-  <si>
-    <t>-3.27%</t>
-  </si>
-  <si>
-    <t>-3.13%</t>
-  </si>
-  <si>
-    <t>-1.79%</t>
-  </si>
-  <si>
-    <t>-1.21%</t>
+    <t>-3.90%</t>
+  </si>
+  <si>
+    <t>-1.76%</t>
+  </si>
+  <si>
+    <t>-1.81%</t>
+  </si>
+  <si>
+    <t>-0.97%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
   </si>
 </sst>
 </file>
@@ -2799,7 +4428,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3099,28 +4728,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3881,37 +5510,37 @@
       <c r="C18" t="s">
         <v>190</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E18" t="s">
         <v>192</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>193</v>
       </c>
       <c r="G18" t="s">
         <v>194</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>195</v>
       </c>
       <c r="I18" t="s">
         <v>196</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>197</v>
       </c>
       <c r="K18" t="s">
         <v>198</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="2" t="s">
         <v>199</v>
       </c>
       <c r="M18" t="s">
         <v>200</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="2" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3925,37 +5554,37 @@
       <c r="C19" t="s">
         <v>202</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E19" t="s">
         <v>204</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>205</v>
       </c>
       <c r="G19" t="s">
         <v>206</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="3" t="s">
         <v>207</v>
       </c>
       <c r="I19" t="s">
         <v>208</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="3" t="s">
         <v>209</v>
       </c>
       <c r="K19" t="s">
         <v>210</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="3" t="s">
         <v>211</v>
       </c>
       <c r="M19" t="s">
         <v>212</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="3" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3969,31 +5598,31 @@
       <c r="C20" t="s">
         <v>214</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>215</v>
       </c>
       <c r="E20" t="s">
         <v>216</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>217</v>
       </c>
       <c r="G20" t="s">
         <v>218</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="3" t="s">
         <v>219</v>
       </c>
       <c r="I20" t="s">
         <v>220</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="3" t="s">
         <v>221</v>
       </c>
       <c r="K20" t="s">
         <v>222</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="3" t="s">
         <v>223</v>
       </c>
       <c r="M20" t="s">
@@ -4013,7 +5642,7 @@
       <c r="C21" t="s">
         <v>226</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>227</v>
       </c>
       <c r="E21" t="s">
@@ -4031,7 +5660,7 @@
       <c r="I21" t="s">
         <v>232</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="3" t="s">
         <v>233</v>
       </c>
       <c r="K21" t="s">
@@ -4075,19 +5704,19 @@
       <c r="I22" t="s">
         <v>244</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="2" t="s">
         <v>245</v>
       </c>
       <c r="K22" t="s">
         <v>246</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="2" t="s">
         <v>247</v>
       </c>
       <c r="M22" t="s">
         <v>248</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="2" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4131,7 +5760,7 @@
       <c r="M23" t="s">
         <v>260</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N23" s="3" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4143,28 +5772,28 @@
         <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K24" t="s">
         <v>99</v>
@@ -4245,7 +5874,7 @@
       <c r="G26" t="s">
         <v>273</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="3" t="s">
         <v>274</v>
       </c>
       <c r="I26" t="s">
@@ -4257,7 +5886,7 @@
       <c r="K26" t="s">
         <v>277</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="3" t="s">
         <v>278</v>
       </c>
       <c r="M26" t="s">
@@ -4327,7 +5956,7 @@
       <c r="E28" t="s">
         <v>295</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>296</v>
       </c>
       <c r="G28" t="s">
@@ -4339,7 +5968,7 @@
       <c r="I28" t="s">
         <v>299</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="2" t="s">
         <v>300</v>
       </c>
       <c r="K28" t="s">
@@ -4351,7 +5980,7 @@
       <c r="M28" t="s">
         <v>303</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="N28" s="3" t="s">
         <v>304</v>
       </c>
     </row>
@@ -4371,13 +6000,13 @@
       <c r="E29" t="s">
         <v>307</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="3" t="s">
         <v>308</v>
       </c>
       <c r="G29" t="s">
         <v>309</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="3" t="s">
         <v>310</v>
       </c>
       <c r="I29" t="s">
@@ -4389,13 +6018,13 @@
       <c r="K29" t="s">
         <v>313</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="3" t="s">
         <v>314</v>
       </c>
       <c r="M29" t="s">
         <v>315</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="N29" s="3" t="s">
         <v>316</v>
       </c>
     </row>
@@ -4415,7 +6044,7 @@
       <c r="E30" t="s">
         <v>319</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>320</v>
       </c>
       <c r="G30" t="s">
@@ -4427,19 +6056,19 @@
       <c r="I30" t="s">
         <v>323</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="3" t="s">
         <v>324</v>
       </c>
       <c r="K30" t="s">
         <v>325</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="3" t="s">
         <v>326</v>
       </c>
       <c r="M30" t="s">
         <v>327</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="N30" s="3" t="s">
         <v>328</v>
       </c>
     </row>
@@ -4501,16 +6130,16 @@
         <v>96</v>
       </c>
       <c r="E32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" t="s">
         <v>101</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>100</v>
-      </c>
-      <c r="G32" t="s">
-        <v>97</v>
-      </c>
-      <c r="H32" t="s">
-        <v>98</v>
       </c>
       <c r="I32" t="s">
         <v>101</v>
@@ -4519,16 +6148,16 @@
         <v>100</v>
       </c>
       <c r="K32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M32" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N32" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -4585,13 +6214,13 @@
       <c r="C34" t="s">
         <v>348</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>349</v>
       </c>
       <c r="E34" t="s">
         <v>350</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="3" t="s">
         <v>351</v>
       </c>
       <c r="G34" t="s">
@@ -4629,31 +6258,31 @@
       <c r="C35" t="s">
         <v>360</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>361</v>
       </c>
       <c r="E35" t="s">
         <v>362</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="3" t="s">
         <v>363</v>
       </c>
       <c r="G35" t="s">
         <v>364</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="3" t="s">
         <v>365</v>
       </c>
       <c r="I35" t="s">
         <v>366</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="3" t="s">
         <v>367</v>
       </c>
       <c r="K35" t="s">
         <v>368</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="3" t="s">
         <v>369</v>
       </c>
       <c r="M35" t="s">
@@ -4691,7 +6320,7 @@
       <c r="I36" t="s">
         <v>378</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="2" t="s">
         <v>379</v>
       </c>
       <c r="K36" t="s">
@@ -4703,7 +6332,7 @@
       <c r="M36" t="s">
         <v>382</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="N36" s="3" t="s">
         <v>383</v>
       </c>
     </row>
@@ -4717,37 +6346,37 @@
       <c r="C37" t="s">
         <v>384</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>385</v>
       </c>
       <c r="E37" t="s">
         <v>386</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="3" t="s">
         <v>387</v>
       </c>
       <c r="G37" t="s">
         <v>388</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="3" t="s">
         <v>389</v>
       </c>
       <c r="I37" t="s">
         <v>390</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="3" t="s">
         <v>391</v>
       </c>
       <c r="K37" t="s">
         <v>392</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="3" t="s">
         <v>393</v>
       </c>
       <c r="M37" t="s">
         <v>394</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="N37" s="3" t="s">
         <v>395</v>
       </c>
     </row>
@@ -4765,34 +6394,34 @@
         <v>397</v>
       </c>
       <c r="E38" t="s">
+        <v>352</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" t="s">
         <v>399</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" t="s">
+        <v>356</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>402</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="L38" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="K38" t="s">
+      <c r="M38" t="s">
         <v>404</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="N38" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="M38" t="s">
-        <v>406</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -4803,40 +6432,40 @@
         <v>81</v>
       </c>
       <c r="C39" t="s">
+        <v>406</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E39" t="s">
         <v>408</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>410</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="G39" t="s">
+      <c r="I39" t="s">
         <v>412</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>414</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="K39" t="s">
+      <c r="M39" t="s">
         <v>416</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="M39" t="s">
-        <v>418</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -4847,40 +6476,40 @@
         <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" t="s">
+        <v>100</v>
+      </c>
+      <c r="J40" t="s">
         <v>101</v>
       </c>
-      <c r="F40" t="s">
+      <c r="K40" t="s">
         <v>100</v>
       </c>
-      <c r="G40" t="s">
+      <c r="L40" t="s">
         <v>101</v>
       </c>
-      <c r="H40" t="s">
-        <v>100</v>
-      </c>
-      <c r="I40" t="s">
-        <v>101</v>
-      </c>
-      <c r="J40" t="s">
-        <v>100</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="M40" t="s">
+        <v>96</v>
+      </c>
+      <c r="N40" t="s">
         <v>95</v>
-      </c>
-      <c r="L40" t="s">
-        <v>96</v>
-      </c>
-      <c r="M40" t="s">
-        <v>101</v>
-      </c>
-      <c r="N40" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -4894,81 +6523,81 @@
         <v>103</v>
       </c>
       <c r="D41" t="s">
+        <v>418</v>
+      </c>
+      <c r="E41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" t="s">
+        <v>419</v>
+      </c>
+      <c r="G41" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" t="s">
         <v>420</v>
       </c>
-      <c r="E41" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="I41" t="s">
+        <v>103</v>
+      </c>
+      <c r="J41" t="s">
         <v>421</v>
       </c>
-      <c r="G41" t="s">
-        <v>103</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="K41" t="s">
+        <v>103</v>
+      </c>
+      <c r="L41" t="s">
         <v>422</v>
       </c>
-      <c r="I41" t="s">
-        <v>103</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="M41" t="s">
+        <v>103</v>
+      </c>
+      <c r="N41" t="s">
         <v>423</v>
-      </c>
-      <c r="K41" t="s">
-        <v>103</v>
-      </c>
-      <c r="L41" t="s">
-        <v>424</v>
-      </c>
-      <c r="M41" t="s">
-        <v>103</v>
-      </c>
-      <c r="N41" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
+        <v>425</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" t="s">
         <v>427</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" t="s">
         <v>429</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" t="s">
         <v>431</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="K42" t="s">
         <v>433</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="M42" t="s">
         <v>435</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -4979,40 +6608,40 @@
         <v>29</v>
       </c>
       <c r="C43" t="s">
+        <v>437</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" t="s">
         <v>439</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" t="s">
         <v>441</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" t="s">
         <v>443</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="K43" t="s">
         <v>445</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="M43" t="s">
         <v>447</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -5023,40 +6652,40 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
+        <v>449</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" t="s">
         <v>451</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" t="s">
         <v>453</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" t="s">
         <v>455</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" t="s">
         <v>457</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="M44" t="s">
         <v>459</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -5067,40 +6696,40 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
+        <v>461</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" t="s">
         <v>463</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" t="s">
         <v>465</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" t="s">
         <v>467</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="K45" t="s">
         <v>469</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>471</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -5111,40 +6740,40 @@
         <v>68</v>
       </c>
       <c r="C46" t="s">
+        <v>473</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" t="s">
         <v>475</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" t="s">
         <v>477</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" t="s">
         <v>479</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="K46" t="s">
         <v>481</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="M46" t="s">
         <v>483</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -5155,40 +6784,40 @@
         <v>81</v>
       </c>
       <c r="C47" t="s">
+        <v>485</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" t="s">
         <v>487</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" t="s">
         <v>489</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="I47" t="s">
         <v>491</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="K47" t="s">
         <v>493</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="M47" t="s">
         <v>495</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -5199,40 +6828,40 @@
         <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48" t="s">
+        <v>98</v>
+      </c>
+      <c r="I48" t="s">
+        <v>101</v>
+      </c>
+      <c r="J48" t="s">
+        <v>100</v>
+      </c>
+      <c r="K48" t="s">
+        <v>97</v>
+      </c>
+      <c r="L48" t="s">
+        <v>98</v>
+      </c>
+      <c r="M48" t="s">
         <v>95</v>
       </c>
-      <c r="F48" t="s">
+      <c r="N48" t="s">
         <v>96</v>
-      </c>
-      <c r="G48" t="s">
-        <v>95</v>
-      </c>
-      <c r="H48" t="s">
-        <v>96</v>
-      </c>
-      <c r="I48" t="s">
-        <v>97</v>
-      </c>
-      <c r="J48" t="s">
-        <v>98</v>
-      </c>
-      <c r="K48" t="s">
-        <v>95</v>
-      </c>
-      <c r="L48" t="s">
-        <v>96</v>
-      </c>
-      <c r="M48" t="s">
-        <v>97</v>
-      </c>
-      <c r="N48" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -5246,81 +6875,81 @@
         <v>103</v>
       </c>
       <c r="D49" t="s">
+        <v>497</v>
+      </c>
+      <c r="E49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" t="s">
         <v>498</v>
       </c>
-      <c r="E49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" t="s">
         <v>499</v>
       </c>
-      <c r="G49" t="s">
-        <v>103</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
+        <v>103</v>
+      </c>
+      <c r="J49" t="s">
         <v>500</v>
       </c>
-      <c r="I49" t="s">
-        <v>103</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
+        <v>103</v>
+      </c>
+      <c r="L49" t="s">
         <v>501</v>
       </c>
-      <c r="K49" t="s">
-        <v>103</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
+        <v>103</v>
+      </c>
+      <c r="N49" t="s">
         <v>502</v>
-      </c>
-      <c r="M49" t="s">
-        <v>103</v>
-      </c>
-      <c r="N49" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
       <c r="C50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" t="s">
         <v>506</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" t="s">
         <v>508</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" t="s">
         <v>510</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="K50" t="s">
         <v>512</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="M50" t="s">
         <v>514</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -5331,7 +6960,7 @@
         <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>517</v>
@@ -5345,7 +6974,7 @@
       <c r="G51" t="s">
         <v>520</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="2" t="s">
         <v>521</v>
       </c>
       <c r="I51" t="s">
@@ -5361,10 +6990,10 @@
         <v>525</v>
       </c>
       <c r="M51" t="s">
-        <v>515</v>
-      </c>
-      <c r="N51" s="2" t="s">
         <v>526</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -5375,40 +7004,40 @@
         <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E52" t="s">
-        <v>528</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>531</v>
       </c>
       <c r="G52" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="I52" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="K52" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M52" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -5419,40 +7048,40 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E53" t="s">
-        <v>530</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>539</v>
+        <v>542</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>543</v>
       </c>
       <c r="G53" t="s">
-        <v>540</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>541</v>
+        <v>544</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>545</v>
       </c>
       <c r="I53" t="s">
-        <v>542</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>543</v>
+        <v>546</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>547</v>
       </c>
       <c r="K53" t="s">
-        <v>544</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>545</v>
+        <v>548</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="M53" t="s">
-        <v>546</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>547</v>
+        <v>550</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -5463,40 +7092,40 @@
         <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="E54" t="s">
-        <v>518</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>550</v>
+        <v>554</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>555</v>
       </c>
       <c r="G54" t="s">
-        <v>520</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>551</v>
+        <v>556</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="I54" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="K54" t="s">
-        <v>554</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>555</v>
+        <v>560</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="M54" t="s">
-        <v>556</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>557</v>
+        <v>562</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -5507,40 +7136,40 @@
         <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="E55" t="s">
-        <v>515</v>
+        <v>566</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="G55" t="s">
-        <v>524</v>
+        <v>568</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="I55" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="K55" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="M55" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -5557,16 +7186,16 @@
         <v>98</v>
       </c>
       <c r="E56" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F56" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G56" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H56" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I56" t="s">
         <v>101</v>
@@ -5575,10 +7204,10 @@
         <v>100</v>
       </c>
       <c r="K56" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L56" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M56" t="s">
         <v>101</v>
@@ -5598,81 +7227,81 @@
         <v>103</v>
       </c>
       <c r="D57" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="E57" t="s">
         <v>103</v>
       </c>
       <c r="F57" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="G57" t="s">
         <v>103</v>
       </c>
       <c r="H57" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="I57" t="s">
         <v>103</v>
       </c>
       <c r="J57" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="K57" t="s">
         <v>103</v>
       </c>
       <c r="L57" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="M57" t="s">
         <v>103</v>
       </c>
       <c r="N57" t="s">
-        <v>573</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="E58" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="G58" t="s">
-        <v>579</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>580</v>
+        <v>586</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>587</v>
       </c>
       <c r="I58" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="K58" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="M58" t="s">
-        <v>585</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>586</v>
+        <v>592</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -5683,40 +7312,40 @@
         <v>29</v>
       </c>
       <c r="C59" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="E59" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="G59" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="I59" t="s">
-        <v>593</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>594</v>
+        <v>600</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>601</v>
       </c>
       <c r="K59" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="M59" t="s">
-        <v>597</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>598</v>
+        <v>604</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -5727,40 +7356,40 @@
         <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>599</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>600</v>
+        <v>606</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>607</v>
       </c>
       <c r="E60" t="s">
-        <v>601</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>602</v>
+        <v>608</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>609</v>
       </c>
       <c r="G60" t="s">
-        <v>603</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>604</v>
+        <v>610</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="I60" t="s">
-        <v>605</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>606</v>
+        <v>612</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="K60" t="s">
-        <v>607</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>608</v>
+        <v>614</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>615</v>
       </c>
       <c r="M60" t="s">
-        <v>609</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>610</v>
+        <v>616</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -5771,40 +7400,40 @@
         <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="E61" t="s">
-        <v>613</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>614</v>
+        <v>620</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>621</v>
       </c>
       <c r="G61" t="s">
-        <v>615</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>616</v>
+        <v>622</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>623</v>
       </c>
       <c r="I61" t="s">
-        <v>617</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>618</v>
+        <v>624</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>625</v>
       </c>
       <c r="K61" t="s">
-        <v>619</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>620</v>
+        <v>626</v>
+      </c>
+      <c r="L61" t="s">
+        <v>627</v>
       </c>
       <c r="M61" t="s">
-        <v>621</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>622</v>
+        <v>628</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -5815,40 +7444,40 @@
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="E62" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="G62" t="s">
-        <v>627</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>628</v>
+        <v>634</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>635</v>
       </c>
       <c r="I62" t="s">
-        <v>629</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>630</v>
+        <v>636</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>637</v>
       </c>
       <c r="K62" t="s">
-        <v>631</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>632</v>
+        <v>638</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="M62" t="s">
-        <v>633</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>634</v>
+        <v>640</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -5859,40 +7488,40 @@
         <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="E63" t="s">
-        <v>637</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>638</v>
+        <v>644</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>645</v>
       </c>
       <c r="G63" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="I63" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="K63" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="M63" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -5903,40 +7532,40 @@
         <v>94</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D64" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E64" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F64" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G64" t="s">
+        <v>95</v>
+      </c>
+      <c r="H64" t="s">
         <v>96</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
+        <v>97</v>
+      </c>
+      <c r="J64" t="s">
+        <v>98</v>
+      </c>
+      <c r="K64" t="s">
         <v>95</v>
       </c>
-      <c r="I64" t="s">
-        <v>100</v>
-      </c>
-      <c r="J64" t="s">
-        <v>101</v>
-      </c>
-      <c r="K64" t="s">
-        <v>99</v>
-      </c>
       <c r="L64" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M64" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N64" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -5950,81 +7579,81 @@
         <v>103</v>
       </c>
       <c r="D65" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="E65" t="s">
         <v>103</v>
       </c>
       <c r="F65" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="G65" t="s">
         <v>103</v>
       </c>
       <c r="H65" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="I65" t="s">
         <v>103</v>
       </c>
       <c r="J65" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="K65" t="s">
         <v>103</v>
       </c>
       <c r="L65" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="M65" t="s">
         <v>103</v>
       </c>
       <c r="N65" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>654</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>655</v>
+        <v>661</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>662</v>
       </c>
       <c r="E66" t="s">
-        <v>656</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>657</v>
+        <v>663</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>664</v>
       </c>
       <c r="G66" t="s">
-        <v>658</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>659</v>
+        <v>665</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>666</v>
       </c>
       <c r="I66" t="s">
-        <v>660</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>661</v>
+        <v>667</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="K66" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="M66" t="s">
-        <v>664</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>665</v>
+        <v>671</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -6035,40 +7664,40 @@
         <v>29</v>
       </c>
       <c r="C67" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="E67" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="G67" t="s">
-        <v>670</v>
-      </c>
-      <c r="H67" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="I67" t="s">
+        <v>678</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="K67" t="s">
+        <v>680</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="M67" t="s">
         <v>671</v>
       </c>
-      <c r="I67" t="s">
-        <v>672</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="K67" t="s">
-        <v>674</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="M67" t="s">
-        <v>676</v>
-      </c>
       <c r="N67" s="2" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -6079,40 +7708,40 @@
         <v>42</v>
       </c>
       <c r="C68" t="s">
+        <v>661</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E68" t="s">
+        <v>684</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G68" t="s">
+        <v>686</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="I68" t="s">
+        <v>688</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="K68" t="s">
         <v>678</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="E68" t="s">
-        <v>680</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="G68" t="s">
-        <v>682</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="I68" t="s">
-        <v>684</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="K68" t="s">
-        <v>686</v>
-      </c>
       <c r="L68" s="2" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="M68" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -6123,40 +7752,40 @@
         <v>55</v>
       </c>
       <c r="C69" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="E69" t="s">
-        <v>692</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>693</v>
+        <v>686</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>695</v>
       </c>
       <c r="G69" t="s">
-        <v>694</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>697</v>
       </c>
       <c r="I69" t="s">
-        <v>696</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>699</v>
       </c>
       <c r="K69" t="s">
-        <v>698</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>701</v>
       </c>
       <c r="M69" t="s">
-        <v>700</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -6167,39 +7796,39 @@
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E70" t="s">
-        <v>704</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>705</v>
+        <v>674</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="G70" t="s">
-        <v>706</v>
-      </c>
-      <c r="H70" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>707</v>
       </c>
       <c r="I70" t="s">
         <v>708</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="J70" s="2" t="s">
         <v>709</v>
       </c>
       <c r="K70" t="s">
         <v>710</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="L70" s="3" t="s">
         <v>711</v>
       </c>
       <c r="M70" t="s">
         <v>712</v>
       </c>
-      <c r="N70" s="2" t="s">
+      <c r="N70" s="3" t="s">
         <v>713</v>
       </c>
     </row>
@@ -6217,34 +7846,34 @@
         <v>715</v>
       </c>
       <c r="E71" t="s">
+        <v>671</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" t="s">
+        <v>680</v>
+      </c>
+      <c r="H71" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="G71" t="s">
+      <c r="I71" t="s">
         <v>718</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="J71" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="I71" t="s">
+      <c r="K71" t="s">
         <v>720</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="L71" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="K71" t="s">
+      <c r="M71" t="s">
         <v>722</v>
       </c>
-      <c r="L71" s="3" t="s">
+      <c r="N71" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="M71" t="s">
-        <v>724</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -6255,22 +7884,22 @@
         <v>94</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D72" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E72" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F72" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G72" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H72" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I72" t="s">
         <v>101</v>
@@ -6279,16 +7908,16 @@
         <v>100</v>
       </c>
       <c r="K72" t="s">
+        <v>99</v>
+      </c>
+      <c r="L72" t="s">
+        <v>99</v>
+      </c>
+      <c r="M72" t="s">
         <v>101</v>
       </c>
-      <c r="L72" t="s">
+      <c r="N72" t="s">
         <v>100</v>
-      </c>
-      <c r="M72" t="s">
-        <v>95</v>
-      </c>
-      <c r="N72" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -6302,81 +7931,81 @@
         <v>103</v>
       </c>
       <c r="D73" t="s">
+        <v>724</v>
+      </c>
+      <c r="E73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F73" t="s">
+        <v>725</v>
+      </c>
+      <c r="G73" t="s">
+        <v>103</v>
+      </c>
+      <c r="H73" t="s">
         <v>726</v>
       </c>
-      <c r="E73" t="s">
-        <v>103</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+      <c r="J73" t="s">
         <v>727</v>
       </c>
-      <c r="G73" t="s">
-        <v>103</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="K73" t="s">
+        <v>103</v>
+      </c>
+      <c r="L73" t="s">
         <v>728</v>
       </c>
-      <c r="I73" t="s">
-        <v>103</v>
-      </c>
-      <c r="J73" t="s">
+      <c r="M73" t="s">
+        <v>103</v>
+      </c>
+      <c r="N73" t="s">
         <v>729</v>
-      </c>
-      <c r="K73" t="s">
-        <v>103</v>
-      </c>
-      <c r="L73" t="s">
-        <v>730</v>
-      </c>
-      <c r="M73" t="s">
-        <v>103</v>
-      </c>
-      <c r="N73" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74" t="s">
+        <v>731</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="E74" t="s">
         <v>733</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="F74" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="E74" t="s">
+      <c r="G74" t="s">
         <v>735</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="H74" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="G74" t="s">
+      <c r="I74" t="s">
         <v>737</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="J74" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="I74" t="s">
+      <c r="K74" t="s">
         <v>739</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="L74" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="K74" t="s">
+      <c r="M74" t="s">
         <v>741</v>
       </c>
-      <c r="L74" s="3" t="s">
+      <c r="N74" s="3" t="s">
         <v>742</v>
-      </c>
-      <c r="M74" t="s">
-        <v>743</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -6387,40 +8016,40 @@
         <v>29</v>
       </c>
       <c r="C75" t="s">
+        <v>743</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="E75" t="s">
         <v>745</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="E75" t="s">
+      <c r="G75" t="s">
         <v>747</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="H75" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="G75" t="s">
+      <c r="I75" t="s">
         <v>749</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="J75" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="I75" t="s">
+      <c r="K75" t="s">
         <v>751</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="L75" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="K75" t="s">
+      <c r="M75" t="s">
         <v>753</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="N75" s="3" t="s">
         <v>754</v>
-      </c>
-      <c r="M75" t="s">
-        <v>755</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -6431,40 +8060,40 @@
         <v>42</v>
       </c>
       <c r="C76" t="s">
+        <v>755</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="E76" t="s">
         <v>757</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="F76" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="E76" t="s">
+      <c r="G76" t="s">
         <v>759</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="H76" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="G76" t="s">
+      <c r="I76" t="s">
         <v>761</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="J76" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="I76" t="s">
+      <c r="K76" t="s">
         <v>763</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="L76" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="K76" t="s">
+      <c r="M76" t="s">
         <v>765</v>
       </c>
-      <c r="L76" s="3" t="s">
+      <c r="N76" s="3" t="s">
         <v>766</v>
-      </c>
-      <c r="M76" t="s">
-        <v>767</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -6475,40 +8104,40 @@
         <v>55</v>
       </c>
       <c r="C77" t="s">
+        <v>767</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="E77" t="s">
         <v>769</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="F77" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="E77" t="s">
+      <c r="G77" t="s">
         <v>771</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="H77" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="G77" t="s">
+      <c r="I77" t="s">
         <v>773</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="J77" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="I77" t="s">
+      <c r="K77" t="s">
         <v>775</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="L77" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="K77" t="s">
+      <c r="M77" t="s">
         <v>777</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="N77" s="3" t="s">
         <v>778</v>
-      </c>
-      <c r="M77" t="s">
-        <v>779</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -6519,40 +8148,40 @@
         <v>68</v>
       </c>
       <c r="C78" t="s">
+        <v>779</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="E78" t="s">
         <v>781</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="E78" t="s">
+      <c r="G78" t="s">
         <v>783</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="H78" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="G78" t="s">
+      <c r="I78" t="s">
         <v>785</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="J78" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="I78" t="s">
+      <c r="K78" t="s">
         <v>787</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="L78" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="K78" t="s">
+      <c r="M78" t="s">
         <v>789</v>
       </c>
-      <c r="L78" s="2" t="s">
+      <c r="N78" s="3" t="s">
         <v>790</v>
-      </c>
-      <c r="M78" t="s">
-        <v>791</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -6563,40 +8192,40 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
+        <v>791</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E79" t="s">
         <v>793</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="E79" t="s">
+      <c r="G79" t="s">
         <v>795</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="G79" t="s">
+      <c r="I79" t="s">
         <v>797</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="J79" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="I79" t="s">
+      <c r="K79" t="s">
         <v>799</v>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="L79" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="K79" t="s">
+      <c r="M79" t="s">
         <v>801</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="N79" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="M79" t="s">
-        <v>803</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -6607,40 +8236,40 @@
         <v>94</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D80" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E80" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F80" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G80" t="s">
+        <v>96</v>
+      </c>
+      <c r="H80" t="s">
         <v>95</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>96</v>
       </c>
-      <c r="I80" t="s">
-        <v>97</v>
-      </c>
       <c r="J80" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K80" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L80" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M80" t="s">
+        <v>96</v>
+      </c>
+      <c r="N80" t="s">
         <v>95</v>
-      </c>
-      <c r="N80" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -6654,81 +8283,81 @@
         <v>103</v>
       </c>
       <c r="D81" t="s">
+        <v>803</v>
+      </c>
+      <c r="E81" t="s">
+        <v>103</v>
+      </c>
+      <c r="F81" t="s">
+        <v>729</v>
+      </c>
+      <c r="G81" t="s">
+        <v>103</v>
+      </c>
+      <c r="H81" t="s">
+        <v>804</v>
+      </c>
+      <c r="I81" t="s">
+        <v>103</v>
+      </c>
+      <c r="J81" t="s">
         <v>805</v>
       </c>
-      <c r="E81" t="s">
-        <v>103</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="K81" t="s">
+        <v>103</v>
+      </c>
+      <c r="L81" t="s">
         <v>806</v>
       </c>
-      <c r="G81" t="s">
-        <v>103</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="M81" t="s">
+        <v>103</v>
+      </c>
+      <c r="N81" t="s">
         <v>807</v>
-      </c>
-      <c r="I81" t="s">
-        <v>103</v>
-      </c>
-      <c r="J81" t="s">
-        <v>808</v>
-      </c>
-      <c r="K81" t="s">
-        <v>103</v>
-      </c>
-      <c r="L81" t="s">
-        <v>809</v>
-      </c>
-      <c r="M81" t="s">
-        <v>103</v>
-      </c>
-      <c r="N81" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
       </c>
       <c r="C82" t="s">
+        <v>809</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="E82" t="s">
+        <v>811</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="G82" t="s">
         <v>813</v>
       </c>
-      <c r="E82" t="s">
+      <c r="H82" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="I82" t="s">
         <v>815</v>
       </c>
-      <c r="G82" t="s">
+      <c r="J82" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="K82" t="s">
         <v>817</v>
       </c>
-      <c r="I82" t="s">
+      <c r="L82" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="M82" t="s">
         <v>819</v>
       </c>
-      <c r="K82" t="s">
+      <c r="N82" s="3" t="s">
         <v>820</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="M82" t="s">
-        <v>822</v>
-      </c>
-      <c r="N82" s="3" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -6739,40 +8368,40 @@
         <v>29</v>
       </c>
       <c r="C83" t="s">
+        <v>821</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="E83" t="s">
+        <v>823</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="G83" t="s">
         <v>825</v>
       </c>
-      <c r="E83" t="s">
+      <c r="H83" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="I83" t="s">
         <v>827</v>
       </c>
-      <c r="G83" t="s">
+      <c r="J83" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="K83" t="s">
         <v>829</v>
       </c>
-      <c r="I83" t="s">
+      <c r="L83" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="M83" t="s">
         <v>831</v>
       </c>
-      <c r="K83" t="s">
+      <c r="N83" s="3" t="s">
         <v>832</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="M83" t="s">
-        <v>834</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -6783,40 +8412,40 @@
         <v>42</v>
       </c>
       <c r="C84" t="s">
+        <v>833</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="E84" t="s">
+        <v>835</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="G84" t="s">
         <v>837</v>
       </c>
-      <c r="E84" t="s">
+      <c r="H84" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="I84" t="s">
         <v>839</v>
       </c>
-      <c r="G84" t="s">
+      <c r="J84" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="K84" t="s">
         <v>841</v>
       </c>
-      <c r="I84" t="s">
+      <c r="L84" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="M84" t="s">
         <v>843</v>
       </c>
-      <c r="K84" t="s">
+      <c r="N84" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="M84" t="s">
-        <v>846</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -6827,40 +8456,40 @@
         <v>55</v>
       </c>
       <c r="C85" t="s">
+        <v>845</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="E85" t="s">
+        <v>847</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="G85" t="s">
         <v>849</v>
       </c>
-      <c r="E85" t="s">
+      <c r="H85" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="I85" t="s">
         <v>851</v>
       </c>
-      <c r="G85" t="s">
+      <c r="J85" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="K85" t="s">
         <v>853</v>
       </c>
-      <c r="I85" t="s">
+      <c r="L85" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="M85" t="s">
         <v>855</v>
       </c>
-      <c r="K85" t="s">
+      <c r="N85" s="3" t="s">
         <v>856</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="M85" t="s">
-        <v>858</v>
-      </c>
-      <c r="N85" s="3" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -6871,40 +8500,40 @@
         <v>68</v>
       </c>
       <c r="C86" t="s">
+        <v>857</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="E86" t="s">
+        <v>859</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="G86" t="s">
         <v>861</v>
       </c>
-      <c r="E86" t="s">
+      <c r="H86" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="I86" t="s">
         <v>863</v>
       </c>
-      <c r="G86" t="s">
+      <c r="J86" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="K86" t="s">
         <v>865</v>
       </c>
-      <c r="I86" t="s">
+      <c r="L86" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="M86" t="s">
         <v>867</v>
       </c>
-      <c r="K86" t="s">
+      <c r="N86" s="3" t="s">
         <v>868</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="M86" t="s">
-        <v>870</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -6915,40 +8544,40 @@
         <v>81</v>
       </c>
       <c r="C87" t="s">
+        <v>869</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="E87" t="s">
+        <v>871</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="G87" t="s">
         <v>873</v>
       </c>
-      <c r="E87" t="s">
+      <c r="H87" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="I87" t="s">
         <v>875</v>
       </c>
-      <c r="G87" t="s">
+      <c r="J87" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="K87" t="s">
         <v>877</v>
       </c>
-      <c r="I87" t="s">
+      <c r="L87" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="M87" t="s">
         <v>879</v>
       </c>
-      <c r="K87" t="s">
+      <c r="N87" s="2" t="s">
         <v>880</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="M87" t="s">
-        <v>882</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -6959,40 +8588,40 @@
         <v>94</v>
       </c>
       <c r="C88" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88" t="s">
+        <v>99</v>
+      </c>
+      <c r="E88" t="s">
+        <v>98</v>
+      </c>
+      <c r="F88" t="s">
+        <v>97</v>
+      </c>
+      <c r="G88" t="s">
+        <v>98</v>
+      </c>
+      <c r="H88" t="s">
+        <v>97</v>
+      </c>
+      <c r="I88" t="s">
+        <v>98</v>
+      </c>
+      <c r="J88" t="s">
+        <v>97</v>
+      </c>
+      <c r="K88" t="s">
+        <v>100</v>
+      </c>
+      <c r="L88" t="s">
         <v>101</v>
       </c>
-      <c r="D88" t="s">
+      <c r="M88" t="s">
         <v>100</v>
       </c>
-      <c r="E88" t="s">
-        <v>97</v>
-      </c>
-      <c r="F88" t="s">
-        <v>98</v>
-      </c>
-      <c r="G88" t="s">
-        <v>97</v>
-      </c>
-      <c r="H88" t="s">
-        <v>98</v>
-      </c>
-      <c r="I88" t="s">
-        <v>97</v>
-      </c>
-      <c r="J88" t="s">
-        <v>98</v>
-      </c>
-      <c r="K88" t="s">
+      <c r="N88" t="s">
         <v>101</v>
-      </c>
-      <c r="L88" t="s">
-        <v>100</v>
-      </c>
-      <c r="M88" t="s">
-        <v>101</v>
-      </c>
-      <c r="N88" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -7006,81 +8635,81 @@
         <v>103</v>
       </c>
       <c r="D89" t="s">
+        <v>881</v>
+      </c>
+      <c r="E89" t="s">
+        <v>103</v>
+      </c>
+      <c r="F89" t="s">
+        <v>882</v>
+      </c>
+      <c r="G89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H89" t="s">
+        <v>883</v>
+      </c>
+      <c r="I89" t="s">
+        <v>103</v>
+      </c>
+      <c r="J89" t="s">
         <v>884</v>
       </c>
-      <c r="E89" t="s">
-        <v>103</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="K89" t="s">
+        <v>103</v>
+      </c>
+      <c r="L89" t="s">
         <v>885</v>
       </c>
-      <c r="G89" t="s">
-        <v>103</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="M89" t="s">
+        <v>103</v>
+      </c>
+      <c r="N89" t="s">
         <v>886</v>
-      </c>
-      <c r="I89" t="s">
-        <v>103</v>
-      </c>
-      <c r="J89" t="s">
-        <v>887</v>
-      </c>
-      <c r="K89" t="s">
-        <v>103</v>
-      </c>
-      <c r="L89" t="s">
-        <v>888</v>
-      </c>
-      <c r="M89" t="s">
-        <v>103</v>
-      </c>
-      <c r="N89" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>887</v>
       </c>
       <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>888</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="E90" t="s">
         <v>890</v>
       </c>
-      <c r="C90" s="4">
-        <v>1.7878787878787881</v>
-      </c>
-      <c r="D90" s="4">
-        <v>1.2121212121212119</v>
-      </c>
-      <c r="E90" s="4">
-        <v>1.742424242424242</v>
-      </c>
-      <c r="F90" s="4">
-        <v>1.257575757575758</v>
-      </c>
-      <c r="G90" s="4">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="H90" s="4">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="I90" s="4">
-        <v>1.757575757575758</v>
-      </c>
-      <c r="J90" s="4">
-        <v>1.242424242424242</v>
-      </c>
-      <c r="K90" s="4">
-        <v>1.6212121212121211</v>
-      </c>
-      <c r="L90" s="4">
-        <v>1.3787878787878789</v>
-      </c>
-      <c r="M90" s="4">
-        <v>1.606060606060606</v>
-      </c>
-      <c r="N90" s="4">
-        <v>1.393939393939394</v>
+      <c r="F90" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="G90" t="s">
+        <v>892</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="I90" t="s">
+        <v>894</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="K90" t="s">
+        <v>896</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="M90" t="s">
+        <v>898</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -7088,47 +8717,2512 @@
         <v>28</v>
       </c>
       <c r="B91" t="s">
-        <v>891</v>
+        <v>29</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
-      </c>
-      <c r="D91" t="s">
-        <v>892</v>
+        <v>900</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>901</v>
       </c>
       <c r="E91" t="s">
-        <v>103</v>
-      </c>
-      <c r="F91" t="s">
-        <v>893</v>
+        <v>902</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>903</v>
       </c>
       <c r="G91" t="s">
-        <v>103</v>
-      </c>
-      <c r="H91" t="s">
-        <v>894</v>
+        <v>904</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>905</v>
       </c>
       <c r="I91" t="s">
-        <v>103</v>
-      </c>
-      <c r="J91" t="s">
-        <v>895</v>
+        <v>906</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>907</v>
       </c>
       <c r="K91" t="s">
-        <v>103</v>
-      </c>
-      <c r="L91" t="s">
-        <v>896</v>
+        <v>908</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>909</v>
       </c>
       <c r="M91" t="s">
-        <v>103</v>
-      </c>
-      <c r="N91" t="s">
-        <v>897</v>
+        <v>910</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" t="s">
+        <v>912</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="E92" t="s">
+        <v>914</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="G92" t="s">
+        <v>916</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="I92" t="s">
+        <v>918</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="K92" t="s">
+        <v>920</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="M92" t="s">
+        <v>922</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" t="s">
+        <v>924</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="E93" t="s">
+        <v>926</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="G93" t="s">
+        <v>928</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="I93" t="s">
+        <v>930</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="K93" t="s">
+        <v>932</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="M93" t="s">
+        <v>934</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" t="s">
+        <v>936</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="E94" t="s">
+        <v>938</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="G94" t="s">
+        <v>940</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="I94" t="s">
+        <v>942</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="K94" t="s">
+        <v>944</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="M94" t="s">
+        <v>946</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" t="s">
+        <v>948</v>
+      </c>
+      <c r="D95" t="s">
+        <v>949</v>
+      </c>
+      <c r="E95" t="s">
+        <v>950</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="G95" t="s">
+        <v>952</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="I95" t="s">
+        <v>954</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="K95" t="s">
+        <v>956</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="M95" t="s">
+        <v>958</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" t="s">
+        <v>101</v>
+      </c>
+      <c r="E96" t="s">
+        <v>98</v>
+      </c>
+      <c r="F96" t="s">
+        <v>97</v>
+      </c>
+      <c r="G96" t="s">
+        <v>96</v>
+      </c>
+      <c r="H96" t="s">
+        <v>95</v>
+      </c>
+      <c r="I96" t="s">
+        <v>96</v>
+      </c>
+      <c r="J96" t="s">
+        <v>95</v>
+      </c>
+      <c r="K96" t="s">
+        <v>100</v>
+      </c>
+      <c r="L96" t="s">
+        <v>101</v>
+      </c>
+      <c r="M96" t="s">
+        <v>100</v>
+      </c>
+      <c r="N96" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" t="s">
+        <v>960</v>
+      </c>
+      <c r="E97" t="s">
+        <v>103</v>
+      </c>
+      <c r="F97" t="s">
+        <v>807</v>
+      </c>
+      <c r="G97" t="s">
+        <v>103</v>
+      </c>
+      <c r="H97" t="s">
+        <v>961</v>
+      </c>
+      <c r="I97" t="s">
+        <v>103</v>
+      </c>
+      <c r="J97" t="s">
+        <v>886</v>
+      </c>
+      <c r="K97" t="s">
+        <v>103</v>
+      </c>
+      <c r="L97" t="s">
+        <v>962</v>
+      </c>
+      <c r="M97" t="s">
+        <v>103</v>
+      </c>
+      <c r="N97" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>964</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" t="s">
+        <v>965</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="E98" t="s">
+        <v>967</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="G98" t="s">
+        <v>969</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="I98" t="s">
+        <v>971</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="K98" t="s">
+        <v>973</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="M98" t="s">
+        <v>975</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" t="s">
+        <v>977</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="E99" t="s">
+        <v>979</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="G99" t="s">
+        <v>981</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="I99" t="s">
+        <v>983</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="K99" t="s">
+        <v>985</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="M99" t="s">
+        <v>987</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" t="s">
+        <v>989</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="E100" t="s">
+        <v>991</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="G100" t="s">
+        <v>993</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="I100" t="s">
+        <v>995</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="K100" t="s">
+        <v>997</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="M100" t="s">
+        <v>999</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K101" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M101" t="s">
+        <v>1011</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102" t="s">
+        <v>68</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M102" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K103" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M103" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" t="s">
+        <v>94</v>
+      </c>
+      <c r="C104" t="s">
+        <v>97</v>
+      </c>
+      <c r="D104" t="s">
+        <v>98</v>
+      </c>
+      <c r="E104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F104" t="s">
+        <v>98</v>
+      </c>
+      <c r="G104" t="s">
+        <v>95</v>
+      </c>
+      <c r="H104" t="s">
+        <v>96</v>
+      </c>
+      <c r="I104" t="s">
+        <v>101</v>
+      </c>
+      <c r="J104" t="s">
+        <v>100</v>
+      </c>
+      <c r="K104" t="s">
+        <v>101</v>
+      </c>
+      <c r="L104" t="s">
+        <v>100</v>
+      </c>
+      <c r="M104" t="s">
+        <v>101</v>
+      </c>
+      <c r="N104" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" t="s">
+        <v>103</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E105" t="s">
+        <v>103</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G105" t="s">
+        <v>103</v>
+      </c>
+      <c r="H105" t="s">
+        <v>344</v>
+      </c>
+      <c r="I105" t="s">
+        <v>103</v>
+      </c>
+      <c r="J105" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K105" t="s">
+        <v>103</v>
+      </c>
+      <c r="L105" t="s">
+        <v>187</v>
+      </c>
+      <c r="M105" t="s">
+        <v>103</v>
+      </c>
+      <c r="N105" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K106" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M106" t="s">
+        <v>1051</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K107" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="M107" t="s">
+        <v>1063</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" t="s">
+        <v>42</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="K108" t="s">
+        <v>1073</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="M108" t="s">
+        <v>1075</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>28</v>
+      </c>
+      <c r="B109" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K109" t="s">
+        <v>1085</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="M109" t="s">
+        <v>1087</v>
+      </c>
+      <c r="N109" s="3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>28</v>
+      </c>
+      <c r="B110" t="s">
+        <v>68</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K110" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="M110" t="s">
+        <v>1099</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>28</v>
+      </c>
+      <c r="B111" t="s">
+        <v>81</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="K111" t="s">
+        <v>1109</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="M111" t="s">
+        <v>1111</v>
+      </c>
+      <c r="N111" s="3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112" t="s">
+        <v>94</v>
+      </c>
+      <c r="C112" t="s">
+        <v>95</v>
+      </c>
+      <c r="D112" t="s">
+        <v>96</v>
+      </c>
+      <c r="E112" t="s">
+        <v>101</v>
+      </c>
+      <c r="F112" t="s">
+        <v>100</v>
+      </c>
+      <c r="G112" t="s">
+        <v>100</v>
+      </c>
+      <c r="H112" t="s">
+        <v>101</v>
+      </c>
+      <c r="I112" t="s">
+        <v>100</v>
+      </c>
+      <c r="J112" t="s">
+        <v>101</v>
+      </c>
+      <c r="K112" t="s">
+        <v>96</v>
+      </c>
+      <c r="L112" t="s">
+        <v>95</v>
+      </c>
+      <c r="M112" t="s">
+        <v>98</v>
+      </c>
+      <c r="N112" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" t="s">
+        <v>102</v>
+      </c>
+      <c r="C113" t="s">
+        <v>103</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E113" t="s">
+        <v>103</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G113" t="s">
+        <v>103</v>
+      </c>
+      <c r="H113" t="s">
+        <v>109</v>
+      </c>
+      <c r="I113" t="s">
+        <v>103</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K113" t="s">
+        <v>103</v>
+      </c>
+      <c r="L113" t="s">
+        <v>1116</v>
+      </c>
+      <c r="M113" t="s">
+        <v>103</v>
+      </c>
+      <c r="N113" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="K114" t="s">
+        <v>1127</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="M114" t="s">
+        <v>1129</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>28</v>
+      </c>
+      <c r="B115" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1137</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K115" t="s">
+        <v>1139</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="M115" t="s">
+        <v>1141</v>
+      </c>
+      <c r="N115" s="3" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116" t="s">
+        <v>42</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="K116" t="s">
+        <v>1151</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="M116" t="s">
+        <v>1153</v>
+      </c>
+      <c r="N116" s="3" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>28</v>
+      </c>
+      <c r="B117" t="s">
+        <v>55</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="K117" t="s">
+        <v>1163</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="M117" t="s">
+        <v>1165</v>
+      </c>
+      <c r="N117" s="3" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>28</v>
+      </c>
+      <c r="B118" t="s">
+        <v>68</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K118" t="s">
+        <v>1175</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M118" t="s">
+        <v>1177</v>
+      </c>
+      <c r="N118" s="3" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>28</v>
+      </c>
+      <c r="B119" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="K119" t="s">
+        <v>1187</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="M119" t="s">
+        <v>1189</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" t="s">
+        <v>94</v>
+      </c>
+      <c r="C120" t="s">
+        <v>100</v>
+      </c>
+      <c r="D120" t="s">
+        <v>101</v>
+      </c>
+      <c r="E120" t="s">
+        <v>100</v>
+      </c>
+      <c r="F120" t="s">
+        <v>101</v>
+      </c>
+      <c r="G120" t="s">
+        <v>96</v>
+      </c>
+      <c r="H120" t="s">
+        <v>95</v>
+      </c>
+      <c r="I120" t="s">
+        <v>100</v>
+      </c>
+      <c r="J120" t="s">
+        <v>101</v>
+      </c>
+      <c r="K120" t="s">
+        <v>99</v>
+      </c>
+      <c r="L120" t="s">
+        <v>99</v>
+      </c>
+      <c r="M120" t="s">
+        <v>96</v>
+      </c>
+      <c r="N120" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>28</v>
+      </c>
+      <c r="B121" t="s">
+        <v>102</v>
+      </c>
+      <c r="C121" t="s">
+        <v>103</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E121" t="s">
+        <v>103</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G121" t="s">
+        <v>103</v>
+      </c>
+      <c r="H121" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I121" t="s">
+        <v>103</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1194</v>
+      </c>
+      <c r="K121" t="s">
+        <v>103</v>
+      </c>
+      <c r="L121" t="s">
+        <v>1195</v>
+      </c>
+      <c r="M121" t="s">
+        <v>103</v>
+      </c>
+      <c r="N121" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K122" t="s">
+        <v>1206</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="M122" t="s">
+        <v>1208</v>
+      </c>
+      <c r="N122" s="3" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1216</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="K123" t="s">
+        <v>1218</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M123" t="s">
+        <v>1220</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>28</v>
+      </c>
+      <c r="B124" t="s">
+        <v>42</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="K124" t="s">
+        <v>1230</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="M124" t="s">
+        <v>1232</v>
+      </c>
+      <c r="N124" s="2" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>28</v>
+      </c>
+      <c r="B125" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K125" t="s">
+        <v>1242</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="M125" t="s">
+        <v>1244</v>
+      </c>
+      <c r="N125" s="2" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>28</v>
+      </c>
+      <c r="B126" t="s">
+        <v>68</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1252</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K126" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="M126" t="s">
+        <v>1256</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>28</v>
+      </c>
+      <c r="B127" t="s">
+        <v>81</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K127" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="M127" t="s">
+        <v>1268</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>28</v>
+      </c>
+      <c r="B128" t="s">
+        <v>94</v>
+      </c>
+      <c r="C128" t="s">
+        <v>101</v>
+      </c>
+      <c r="D128" t="s">
+        <v>100</v>
+      </c>
+      <c r="E128" t="s">
+        <v>99</v>
+      </c>
+      <c r="F128" t="s">
+        <v>99</v>
+      </c>
+      <c r="G128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H128" t="s">
+        <v>100</v>
+      </c>
+      <c r="I128" t="s">
+        <v>101</v>
+      </c>
+      <c r="J128" t="s">
+        <v>100</v>
+      </c>
+      <c r="K128" t="s">
+        <v>101</v>
+      </c>
+      <c r="L128" t="s">
+        <v>100</v>
+      </c>
+      <c r="M128" t="s">
+        <v>95</v>
+      </c>
+      <c r="N128" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>28</v>
+      </c>
+      <c r="B129" t="s">
+        <v>102</v>
+      </c>
+      <c r="C129" t="s">
+        <v>103</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E129" t="s">
+        <v>103</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G129" t="s">
+        <v>103</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I129" t="s">
+        <v>103</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K129" t="s">
+        <v>103</v>
+      </c>
+      <c r="L129" t="s">
+        <v>1274</v>
+      </c>
+      <c r="M129" t="s">
+        <v>103</v>
+      </c>
+      <c r="N129" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K130" t="s">
+        <v>1285</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="M130" t="s">
+        <v>1287</v>
+      </c>
+      <c r="N130" s="3" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>28</v>
+      </c>
+      <c r="B131" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K131" t="s">
+        <v>1297</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="M131" t="s">
+        <v>1299</v>
+      </c>
+      <c r="N131" s="2" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>28</v>
+      </c>
+      <c r="B132" t="s">
+        <v>42</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1307</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K132" t="s">
+        <v>1309</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="M132" t="s">
+        <v>1311</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>28</v>
+      </c>
+      <c r="B133" t="s">
+        <v>55</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1319</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="K133" t="s">
+        <v>1321</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="M133" t="s">
+        <v>1323</v>
+      </c>
+      <c r="N133" s="2" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>28</v>
+      </c>
+      <c r="B134" t="s">
+        <v>68</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K134" t="s">
+        <v>1333</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="M134" t="s">
+        <v>1335</v>
+      </c>
+      <c r="N134" s="2" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>28</v>
+      </c>
+      <c r="B135" t="s">
+        <v>81</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1343</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K135" t="s">
+        <v>1345</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="M135" t="s">
+        <v>1347</v>
+      </c>
+      <c r="N135" s="2" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>28</v>
+      </c>
+      <c r="B136" t="s">
+        <v>94</v>
+      </c>
+      <c r="C136" t="s">
+        <v>97</v>
+      </c>
+      <c r="D136" t="s">
+        <v>98</v>
+      </c>
+      <c r="E136" t="s">
+        <v>97</v>
+      </c>
+      <c r="F136" t="s">
+        <v>98</v>
+      </c>
+      <c r="G136" t="s">
+        <v>95</v>
+      </c>
+      <c r="H136" t="s">
+        <v>96</v>
+      </c>
+      <c r="I136" t="s">
+        <v>97</v>
+      </c>
+      <c r="J136" t="s">
+        <v>98</v>
+      </c>
+      <c r="K136" t="s">
+        <v>101</v>
+      </c>
+      <c r="L136" t="s">
+        <v>100</v>
+      </c>
+      <c r="M136" t="s">
+        <v>95</v>
+      </c>
+      <c r="N136" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>28</v>
+      </c>
+      <c r="B137" t="s">
+        <v>102</v>
+      </c>
+      <c r="C137" t="s">
+        <v>103</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E137" t="s">
+        <v>103</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G137" t="s">
+        <v>103</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I137" t="s">
+        <v>103</v>
+      </c>
+      <c r="J137" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K137" t="s">
+        <v>103</v>
+      </c>
+      <c r="L137" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M137" t="s">
+        <v>103</v>
+      </c>
+      <c r="N137" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G138" t="s">
+        <v>1360</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="K138" t="s">
+        <v>1364</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="M138" t="s">
+        <v>1366</v>
+      </c>
+      <c r="N138" s="3" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>28</v>
+      </c>
+      <c r="B139" t="s">
+        <v>29</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G139" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1374</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="K139" t="s">
+        <v>1376</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="M139" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N139" s="2" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>28</v>
+      </c>
+      <c r="B140" t="s">
+        <v>42</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1386</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="K140" t="s">
+        <v>1388</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="M140" t="s">
+        <v>1390</v>
+      </c>
+      <c r="N140" s="2" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>28</v>
+      </c>
+      <c r="B141" t="s">
+        <v>55</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1398</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="K141" t="s">
+        <v>1400</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="M141" t="s">
+        <v>1402</v>
+      </c>
+      <c r="N141" s="3" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>28</v>
+      </c>
+      <c r="B142" t="s">
+        <v>68</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G142" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1410</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="K142" t="s">
+        <v>1412</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="M142" t="s">
+        <v>1414</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B143" t="s">
+        <v>81</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1420</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1422</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K143" t="s">
+        <v>1424</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="M143" t="s">
+        <v>1426</v>
+      </c>
+      <c r="N143" s="2" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>28</v>
+      </c>
+      <c r="B144" t="s">
+        <v>94</v>
+      </c>
+      <c r="C144" t="s">
+        <v>101</v>
+      </c>
+      <c r="D144" t="s">
+        <v>100</v>
+      </c>
+      <c r="E144" t="s">
+        <v>97</v>
+      </c>
+      <c r="F144" t="s">
+        <v>98</v>
+      </c>
+      <c r="G144" t="s">
+        <v>97</v>
+      </c>
+      <c r="H144" t="s">
+        <v>98</v>
+      </c>
+      <c r="I144" t="s">
+        <v>97</v>
+      </c>
+      <c r="J144" t="s">
+        <v>98</v>
+      </c>
+      <c r="K144" t="s">
+        <v>101</v>
+      </c>
+      <c r="L144" t="s">
+        <v>100</v>
+      </c>
+      <c r="M144" t="s">
+        <v>101</v>
+      </c>
+      <c r="N144" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>28</v>
+      </c>
+      <c r="B145" t="s">
+        <v>102</v>
+      </c>
+      <c r="C145" t="s">
+        <v>103</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E145" t="s">
+        <v>103</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G145" t="s">
+        <v>103</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1430</v>
+      </c>
+      <c r="I145" t="s">
+        <v>103</v>
+      </c>
+      <c r="J145" t="s">
+        <v>1431</v>
+      </c>
+      <c r="K145" t="s">
+        <v>103</v>
+      </c>
+      <c r="L145" t="s">
+        <v>1432</v>
+      </c>
+      <c r="M145" t="s">
+        <v>103</v>
+      </c>
+      <c r="N145" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>28</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C146" s="4">
+        <v>1.7037037037037039</v>
+      </c>
+      <c r="D146" s="4">
+        <v>1.2962962962962961</v>
+      </c>
+      <c r="E146" s="4">
+        <v>1.6018518518518521</v>
+      </c>
+      <c r="F146" s="4">
+        <v>1.3981481481481479</v>
+      </c>
+      <c r="G146" s="4">
+        <v>1.5277777777777779</v>
+      </c>
+      <c r="H146" s="4">
+        <v>1.4722222222222221</v>
+      </c>
+      <c r="I146" s="4">
+        <v>1.583333333333333</v>
+      </c>
+      <c r="J146" s="4">
+        <v>1.416666666666667</v>
+      </c>
+      <c r="K146" s="4">
+        <v>1.518518518518519</v>
+      </c>
+      <c r="L146" s="4">
+        <v>1.481481481481481</v>
+      </c>
+      <c r="M146" s="4">
+        <v>1.481481481481481</v>
+      </c>
+      <c r="N146" s="4">
+        <v>1.518518518518519</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>28</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C147" t="s">
+        <v>103</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E147" t="s">
+        <v>103</v>
+      </c>
+      <c r="F147" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G147" t="s">
+        <v>103</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1438</v>
+      </c>
+      <c r="I147" t="s">
+        <v>103</v>
+      </c>
+      <c r="J147" t="s">
+        <v>1439</v>
+      </c>
+      <c r="K147" t="s">
+        <v>103</v>
+      </c>
+      <c r="L147" t="s">
+        <v>1440</v>
+      </c>
+      <c r="M147" t="s">
+        <v>103</v>
+      </c>
+      <c r="N147" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>